--- a/INPUT/Raw Inputs/TimothyKidd-env.xlsx
+++ b/INPUT/Raw Inputs/TimothyKidd-env.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koconnor/Desktop/IPCD_prep/LasRbyLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czhao\Documents\CYZ GITHUB\Digglets\For_Conan\INPUT\Raw Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47680EFD-C948-794D-9CF5-8ED5C0BFAAAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996756C3-E5C4-4870-B7D0-B1161CB985E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{76D28445-3097-8349-B452-F370B5224E8D}"/>
+    <workbookView xWindow="14970" yWindow="4755" windowWidth="16500" windowHeight="15270" xr2:uid="{76D28445-3097-8349-B452-F370B5224E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,13 +577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70620450-F057-9741-833E-B48D488CB334}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>212</v>
       </c>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>215</v>
       </c>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>227</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>228</v>
       </c>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>229</v>
       </c>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>236</v>
       </c>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>239</v>
       </c>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>241</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>245</v>
       </c>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>246</v>
       </c>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>247</v>
       </c>
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>249</v>
       </c>
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>252</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>253</v>
       </c>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>270</v>
       </c>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>274</v>
       </c>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>287</v>
       </c>
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>288</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>289</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>292</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>294</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>295</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>297</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>312</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>317</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>324</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>325</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>331</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>353</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>357</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>367</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>369</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>371</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>377</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>380</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>381</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>382</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>389</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>392</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>394</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>395</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>396</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>397</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>411</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>412</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>413</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>414</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>415</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>432</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>443</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>444</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>445</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>446</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>447</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>448</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>449</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>450</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>451</v>
       </c>
@@ -1970,6 +1970,7 @@
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
